--- a/Pritzker Presentation Figures 4.25/CY24WomensPrisonPop.xlsx
+++ b/Pritzker Presentation Figures 4.25/CY24WomensPrisonPop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2. WJI\WJI GitHUB\Pritzker Presentation Figures 4.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC2CD2E-6CA2-4220-A63E-D8E46528781C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCA09F4-5BFD-4024-81C8-247E2314092C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28410" yWindow="1620" windowWidth="25455" windowHeight="14985" xr2:uid="{07FAB305-F2D2-40CB-A5D6-A06FBBB36EC7}"/>
+    <workbookView xWindow="1680" yWindow="390" windowWidth="25455" windowHeight="14985" xr2:uid="{07FAB305-F2D2-40CB-A5D6-A06FBBB36EC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,10 +59,10 @@
     <t>50yo or older</t>
   </si>
   <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>White</t>
+    <t xml:space="preserve">Black </t>
+  </si>
+  <si>
+    <t>Hispanic</t>
   </si>
 </sst>
 </file>
@@ -106,10 +106,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,91 +447,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC97784A-B1CF-4F4C-838D-5EFF2BE3A91F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="M16" sqref="L16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2024</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2024</v>
+      </c>
+      <c r="D1">
+        <v>2016</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>0.42</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>590</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="E3" s="4">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>833</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>232</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="E5" s="4">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>0.22</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>325</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="2">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>525</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="C9" s="4">
+        <v>485</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B10" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="C10" s="4">
+        <v>119</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>0.2</v>
+      </c>
+      <c r="C11" s="3">
+        <v>289</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
